--- a/planning/功能模块划分及开发时间安排.xlsx
+++ b/planning/功能模块划分及开发时间安排.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>功能模块列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,14 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截止2015-11-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +218,18 @@
   </si>
   <si>
     <t>截止2015-11-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐志远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止2015-11-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止2015-11-29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,6 +348,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,30 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,7 +688,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,10 +701,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
@@ -708,96 +712,96 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15" t="s">
-        <v>50</v>
+      <c r="D3" s="12"/>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -806,46 +810,46 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>40</v>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15" t="s">
-        <v>41</v>
+      <c r="D9" s="12"/>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
-        <v>42</v>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -854,44 +858,44 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>37</v>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15" t="s">
-        <v>37</v>
+      <c r="D12" s="12"/>
+      <c r="E12" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
-        <v>38</v>
+      <c r="D13" s="13"/>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -905,7 +909,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -919,7 +923,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
@@ -931,7 +935,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
@@ -943,7 +947,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -957,7 +961,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -969,7 +973,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -981,7 +985,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -995,7 +999,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1011,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1015,15 +1019,15 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1034,17 +1038,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
